--- a/data/trans_camb/POLIPATOLOGIA_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_2-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>7.154654370823094</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>15.86007023108786</v>
+        <v>15.86007023108785</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.650146793378276</v>
+        <v>5.395567580530231</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.800453408993353</v>
+        <v>1.129472499781456</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.229642633879202</v>
+        <v>8.924166057791622</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.026732466602826</v>
+        <v>3.913977788647791</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.525469495053827</v>
+        <v>4.114162720084352</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>12.82200048625986</v>
+        <v>12.69928623398572</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6.25009863040638</v>
+        <v>6.45851268051747</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.223512491177814</v>
+        <v>3.984088970538639</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>12.73840492796967</v>
+        <v>13.03706920440867</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.32204824763913</v>
+        <v>14.69655133235488</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.11661248732527</v>
+        <v>10.36617938590243</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.9332452507171</v>
+        <v>18.92805164895421</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.65496984718274</v>
+        <v>11.79222230982386</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.9305680534964</v>
+        <v>12.46848675102371</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>20.17401081746312</v>
+        <v>20.18451505503621</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.95718920156013</v>
+        <v>12.29910093509625</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.12399284886759</v>
+        <v>10.13606710311809</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>18.96724907022662</v>
+        <v>19.14591457940404</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.1486451851771735</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3295090096926394</v>
+        <v>0.3295090096926392</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1405379369088719</v>
+        <v>0.1370272078176579</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.02100532424720182</v>
+        <v>0.02640262086451346</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2292197394617587</v>
+        <v>0.2222263543560314</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.06953922542744947</v>
+        <v>0.06911926660157344</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06155126309189991</v>
+        <v>0.07172215449397816</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.224551348701827</v>
+        <v>0.221762084288366</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.126001240739508</v>
+        <v>0.1298797115446537</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.0839993286654469</v>
+        <v>0.08299373286117896</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2572205749341894</v>
+        <v>0.2626373499104193</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3836916971708093</v>
+        <v>0.4057504647191343</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2761119719384308</v>
+        <v>0.2843797103990321</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5090179815627945</v>
+        <v>0.5273459694982086</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.22027978238838</v>
+        <v>0.220702235118265</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2208384709689116</v>
+        <v>0.2326226590788276</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.381004923114818</v>
+        <v>0.3824350560046962</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2563329384211641</v>
+        <v>0.2658603746549024</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2157717175623867</v>
+        <v>0.219810497385396</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4082458192956315</v>
+        <v>0.410964233829086</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>7.083094037288538</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17.45066012291527</v>
+        <v>17.45066012291526</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>4.833265350023649</v>
@@ -869,7 +869,7 @@
         <v>7.04778035414158</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>19.49228138942926</v>
+        <v>19.49228138942925</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>4.531229321787656</v>
@@ -878,7 +878,7 @@
         <v>7.112779038935638</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>18.54131005238898</v>
+        <v>18.54131005238899</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.296699091079999</v>
+        <v>2.035639322243855</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.842742934949003</v>
+        <v>4.616860479035179</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14.82527471069245</v>
+        <v>14.80566508323576</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.012267486287182</v>
+        <v>1.916413225301132</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.094602452286463</v>
+        <v>4.352438683310687</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.73799170409748</v>
+        <v>16.4870246567643</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.713536396611167</v>
+        <v>2.734249982723998</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>5.534110932464331</v>
+        <v>5.345334252316939</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>16.56904421038177</v>
+        <v>16.56392441279494</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.754524117405521</v>
+        <v>6.40984742839103</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.442625542352015</v>
+        <v>9.261143448678428</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20.36604584830203</v>
+        <v>19.93869306408799</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.908127404926363</v>
+        <v>7.860119447761694</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.679949806063796</v>
+        <v>9.905281611588681</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>22.4692561128088</v>
+        <v>22.03679660885144</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.260370423373807</v>
+        <v>6.447291054496083</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.07551784062103</v>
+        <v>8.997613478745732</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>20.44204801435642</v>
+        <v>20.37724817154783</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.6469368363324787</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.593862059772094</v>
+        <v>1.593862059772093</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2435428169865109</v>
@@ -974,7 +974,7 @@
         <v>0.3551297428645069</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9821941845282947</v>
+        <v>0.9821941845282943</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.2970558655554089</v>
@@ -983,7 +983,7 @@
         <v>0.4662956967893691</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.215521112484918</v>
+        <v>1.215521112484919</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1965745742939657</v>
+        <v>0.1702798299758443</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.409675037891289</v>
+        <v>0.3783669320958082</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.217718173930169</v>
+        <v>1.185182576493979</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.09673112781638776</v>
+        <v>0.08325181356387402</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1896488402548131</v>
+        <v>0.2008783303741064</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7693833341493123</v>
+        <v>0.7702018129613529</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1699093267045308</v>
+        <v>0.1660693399631264</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.343290384999574</v>
+        <v>0.3312655098565284</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.024826005521469</v>
+        <v>1.01087271135078</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7054287258434091</v>
+        <v>0.652605642312572</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9862396929726893</v>
+        <v>0.9317087077800161</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.112427723531168</v>
+        <v>1.998578516413205</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4330137012766294</v>
+        <v>0.4224448124846174</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5298865702884246</v>
+        <v>0.5411725169218655</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.221090333202844</v>
+        <v>1.217811302157891</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4310535700923402</v>
+        <v>0.4533681560555002</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6232298465784611</v>
+        <v>0.6292726195943386</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.449545216369386</v>
+        <v>1.41479620995688</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>6.800376515151829</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16.40361270088907</v>
+        <v>16.40361270088906</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.430385294509809</v>
@@ -1092,7 +1092,7 @@
         <v>4.348415856643634</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>17.97127938214535</v>
+        <v>17.97127938214534</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.641977121944599</v>
+        <v>-4.04493213204322</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.512273362934638</v>
+        <v>2.263056582738247</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11.88951677811034</v>
+        <v>12.27977728287186</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.813448890521976</v>
+        <v>-4.240923453886436</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.697508602172787</v>
+        <v>-3.592786749798529</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>14.0192802454546</v>
+        <v>14.03453351561784</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.29388175003063</v>
+        <v>-2.551666000647609</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.080199457874332</v>
+        <v>0.9672770992064792</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>14.62148188931577</v>
+        <v>14.96149323017703</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.719368087859434</v>
+        <v>4.332586697037108</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.24719260877437</v>
+        <v>11.30638136849638</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20.42537674364025</v>
+        <v>21.01366936056636</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.208325763652359</v>
+        <v>6.67987414777706</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.273311993066269</v>
+        <v>7.253079912171105</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>23.95342556309033</v>
+        <v>23.70033412392372</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.230801337777082</v>
+        <v>4.222268546074792</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.08580978276426</v>
+        <v>7.789875641573524</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>21.19745377679165</v>
+        <v>21.38036278548442</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.6060642819427007</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.461925487607878</v>
+        <v>1.461925487607877</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.07709285193120999</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3456781002483639</v>
+        <v>-0.3140211207968875</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1891985029704983</v>
+        <v>0.1596521288356043</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.8529826931077152</v>
+        <v>0.8453218722408363</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1830182671442248</v>
+        <v>-0.1965020744945905</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.172120014066855</v>
+        <v>-0.1662371492425074</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6381281957477734</v>
+        <v>0.6559670890262143</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1419938431348598</v>
+        <v>-0.1567087084376807</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.05986806391680197</v>
+        <v>0.05870766791756197</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.9084732054590975</v>
+        <v>0.9214710238979453</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3933307477066056</v>
+        <v>0.4744273939939223</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.201160814266391</v>
+        <v>1.191866933261341</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.272848352756259</v>
+        <v>2.312353578169531</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.449895024868578</v>
+        <v>0.4273852034837773</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3894158195731471</v>
+        <v>0.4775080607246711</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.562083923131289</v>
+        <v>1.580123125526166</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3240167000622793</v>
+        <v>0.3204767536043507</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6369539073591076</v>
+        <v>0.6134021887588291</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.659224738474348</v>
+        <v>1.667914966987306</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>4.135572334319079</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12.48121454088423</v>
+        <v>12.48121454088424</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.159990882164128</v>
@@ -1297,7 +1297,7 @@
         <v>2.625857146741756</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>12.61394256525092</v>
+        <v>12.61394256525093</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>4.890451321061523</v>
@@ -1306,7 +1306,7 @@
         <v>3.411451161239676</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>12.64024629777594</v>
+        <v>12.64024629777595</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.55434247890911</v>
+        <v>2.524482060867499</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.21776092992257</v>
+        <v>1.974052546785613</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10.39808315149267</v>
+        <v>10.38581580859517</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.060933289297479</v>
+        <v>2.910290522977877</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5402360101456907</v>
+        <v>0.3880238637626923</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.59540241367723</v>
+        <v>10.1184512200037</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.291602420123326</v>
+        <v>3.321676763168666</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.875654313944802</v>
+        <v>1.852376419058658</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>10.94210948756371</v>
+        <v>11.02976716888993</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.536049337809064</v>
+        <v>6.729239604568265</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.448734855996411</v>
+        <v>6.173534555287815</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.63982680191963</v>
+        <v>14.59957634445747</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.584204596957624</v>
+        <v>7.562759186057484</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.984191674687914</v>
+        <v>5.102720506319129</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.84122944615623</v>
+        <v>14.74518873263707</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.513438552764969</v>
+        <v>6.581197648593519</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.998118707920042</v>
+        <v>5.051470803015848</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>14.03958016456112</v>
+        <v>14.08763825630898</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2091163914121669</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6311161634319512</v>
+        <v>0.6311161634319514</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1539847016119371</v>
@@ -1402,7 +1402,7 @@
         <v>0.07836095808119306</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3764258942344568</v>
+        <v>0.3764258942344569</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1828274728815593</v>
@@ -1411,7 +1411,7 @@
         <v>0.1275356718064477</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4725503098804465</v>
+        <v>0.4725503098804469</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1239718842836051</v>
+        <v>0.1176191511942374</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1090568253913392</v>
+        <v>0.09296345355185771</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4984046471175466</v>
+        <v>0.4983066048680945</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.08995651835031312</v>
+        <v>0.08465167598839925</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01582667331132106</v>
+        <v>0.009723316682416109</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3036095578697871</v>
+        <v>0.2880896394313555</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1186922204098007</v>
+        <v>0.1200039977058051</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.06689899037094875</v>
+        <v>0.06722360901981782</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3953579487245569</v>
+        <v>0.4028129805940071</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.346548468601252</v>
+        <v>0.3561109008638309</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3488320123393689</v>
+        <v>0.3291894903566022</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7706967356075194</v>
+        <v>0.7942955325363584</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2365415511347785</v>
+        <v>0.2352630319652758</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1542776034588788</v>
+        <v>0.1569400414099807</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4589905186401864</v>
+        <v>0.4600660190359159</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2505204092589015</v>
+        <v>0.2533494844979297</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1920438858047308</v>
+        <v>0.1920263691164328</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5380551744215123</v>
+        <v>0.5428750404331902</v>
       </c>
     </row>
     <row r="28">
